--- a/data/mall-swarm/mall-swarm_structure.xlsx
+++ b/data/mall-swarm/mall-swarm_structure.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="feignRelations" r:id="rId3" sheetId="1"/>
+    <sheet name="kafkaRelations" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Source Service Name</t>
   </si>
@@ -32,6 +33,9 @@
     <t>Target Operation Signature</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>mall-admin</t>
   </si>
   <si>
@@ -114,6 +118,15 @@
   </si>
   <si>
     <t>com.macro.mall.search.controller.EsProductController</t>
+  </si>
+  <si>
+    <t>Target Class Name</t>
+  </si>
+  <si>
+    <t>Target Method Signature</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -183,212 +196,254 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F6" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="G10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-swarm_structure.xlsx
+++ b/data/mall-swarm/mall-swarm_structure.xlsx
@@ -37130,22 +37130,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>967</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>660</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>163</v>
+        <v>765</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>13</v>
@@ -37153,22 +37153,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>644</v>
+        <v>967</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>765</v>
+        <v>634</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>61</v>
+        <v>636</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
